--- a/experience.xlsx
+++ b/experience.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\GitHub\PathFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EC574D-1E6B-43CE-B1A0-6855489E5FC0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3FB824-E372-4C1C-9A6E-025DC6D09716}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Commando gobelin</t>
   </si>
@@ -64,6 +64,24 @@
   </si>
   <si>
     <t>Grulk</t>
+  </si>
+  <si>
+    <t>escalier descendant</t>
+  </si>
+  <si>
+    <t>Zombie gobelin</t>
+  </si>
+  <si>
+    <t>Squelette humain</t>
+  </si>
+  <si>
+    <t>Fosse a pieux</t>
+  </si>
+  <si>
+    <t>araignée lunaire</t>
+  </si>
+  <si>
+    <t>Bloc de pierre broyeur</t>
   </si>
 </sst>
 </file>
@@ -418,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574DC262-0744-4214-8AE8-B278A91423C7}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +467,7 @@
       </c>
       <c r="G1">
         <f>SUM(D:D)</f>
-        <v>5815</v>
+        <v>9260</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -463,14 +481,14 @@
         <v>400</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D8" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D14" si="0">B2*C2</f>
         <v>800</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -492,10 +510,10 @@
       </c>
       <c r="G3">
         <f>G1/G2</f>
-        <v>1453.75</v>
+        <v>1852</v>
       </c>
       <c r="H3">
-        <v>1300</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -571,6 +589,96 @@
       <c r="D8">
         <f t="shared" si="0"/>
         <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>500</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>135</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>600</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>600</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>600</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/experience.xlsx
+++ b/experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\GitHub\PathFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3FB824-E372-4C1C-9A6E-025DC6D09716}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEF75D2-323D-4B6D-9926-C4162389DDA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Commando gobelin</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Bloc de pierre broyeur</t>
+  </si>
+  <si>
+    <t>Contact glacial</t>
+  </si>
+  <si>
+    <t>Gorloth</t>
   </si>
 </sst>
 </file>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574DC262-0744-4214-8AE8-B278A91423C7}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +473,7 @@
       </c>
       <c r="G1">
         <f>SUM(D:D)</f>
-        <v>9260</v>
+        <v>13265</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -481,14 +487,14 @@
         <v>400</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D14" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D16" si="0">B2*C2</f>
         <v>800</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -510,7 +516,7 @@
       </c>
       <c r="G3">
         <f>G1/G2</f>
-        <v>1852</v>
+        <v>3316.25</v>
       </c>
       <c r="H3">
         <v>3300</v>
@@ -626,14 +632,14 @@
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>135</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>945</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -641,14 +647,14 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>600</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -656,14 +662,14 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>600</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -679,6 +685,36 @@
       <c r="D14">
         <f t="shared" si="0"/>
         <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>600</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1200</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>

--- a/experience.xlsx
+++ b/experience.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\GitHub\PathFinder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Desktop\local\PathFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEF75D2-323D-4B6D-9926-C4162389DDA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBBF17D-12D0-447F-95BC-7B48C515BA6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
   </bookViews>
@@ -445,16 +445,16 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +476,7 @@
         <v>13265</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -497,7 +497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -519,10 +519,10 @@
         <v>3316.25</v>
       </c>
       <c r="H3">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -537,7 +537,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -552,7 +552,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -567,7 +567,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -582,7 +582,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -597,7 +597,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -612,7 +612,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -627,7 +627,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -642,7 +642,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -657,7 +657,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -672,7 +672,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -687,7 +687,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -702,7 +702,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>

--- a/experience.xlsx
+++ b/experience.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Desktop\local\PathFinder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\GitHub\PathFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBBF17D-12D0-447F-95BC-7B48C515BA6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F35B69-CA5A-4331-A09E-EB97C8BBA362}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Commando gobelin</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>Gorloth</t>
+  </si>
+  <si>
+    <t>Nuée d'araignée</t>
+  </si>
+  <si>
+    <t>Hors la loi du bois de l'écho</t>
+  </si>
+  <si>
+    <t>Eclaireur du bois de l'écho</t>
   </si>
 </sst>
 </file>
@@ -442,19 +451,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574DC262-0744-4214-8AE8-B278A91423C7}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,10 +482,10 @@
       </c>
       <c r="G1">
         <f>SUM(D:D)</f>
-        <v>13265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16865</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -487,7 +496,7 @@
         <v>400</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D16" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D19" si="0">B2*C2</f>
         <v>800</v>
       </c>
       <c r="F2" t="s">
@@ -497,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -516,13 +525,13 @@
       </c>
       <c r="G3">
         <f>G1/G2</f>
-        <v>3316.25</v>
+        <v>4216.25</v>
       </c>
       <c r="H3">
         <v>6000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -537,7 +546,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -552,7 +561,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -567,7 +576,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -582,7 +591,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -597,7 +606,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -612,7 +621,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -627,7 +636,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -642,7 +651,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -657,22 +666,22 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>600</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -687,7 +696,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -702,7 +711,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -715,6 +724,51 @@
       <c r="D16">
         <f t="shared" si="0"/>
         <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>400</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>400</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/experience.xlsx
+++ b/experience.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\GitHub\PathFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F35B69-CA5A-4331-A09E-EB97C8BBA362}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E4E2C5-2641-4371-B70A-B3B8306D1AAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Commando gobelin</t>
   </si>
@@ -97,6 +97,27 @@
   </si>
   <si>
     <t>Eclaireur du bois de l'écho</t>
+  </si>
+  <si>
+    <t>Babelien</t>
+  </si>
+  <si>
+    <t>Gaz synthétique</t>
+  </si>
+  <si>
+    <t>Jaris Phénogian</t>
+  </si>
+  <si>
+    <t>Cobra de fer</t>
+  </si>
+  <si>
+    <t>Tarrine Dars</t>
+  </si>
+  <si>
+    <t>Serviteur mécanique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descente strate </t>
   </si>
 </sst>
 </file>
@@ -451,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574DC262-0744-4214-8AE8-B278A91423C7}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,7 +503,7 @@
       </c>
       <c r="G1">
         <f>SUM(D:D)</f>
-        <v>16865</v>
+        <v>25015</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -496,7 +517,7 @@
         <v>400</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D19" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D27" si="0">B2*C2</f>
         <v>800</v>
       </c>
       <c r="F2" t="s">
@@ -525,7 +546,7 @@
       </c>
       <c r="G3">
         <f>G1/G2</f>
-        <v>4216.25</v>
+        <v>6253.75</v>
       </c>
       <c r="H3">
         <v>6000</v>
@@ -761,14 +782,134 @@
         <v>21</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>200</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1600</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>400</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>600</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>600</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1200</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>600</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>150</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>200</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/experience.xlsx
+++ b/experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\GitHub\PathFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E4E2C5-2641-4371-B70A-B3B8306D1AAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9011DD5-0F7C-47B8-9D8F-BF8B7042584F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Commando gobelin</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t xml:space="preserve">Descente strate </t>
+  </si>
+  <si>
+    <t>Désactivation de la boite dieu</t>
   </si>
 </sst>
 </file>
@@ -472,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574DC262-0744-4214-8AE8-B278A91423C7}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +506,7 @@
       </c>
       <c r="G1">
         <f>SUM(D:D)</f>
-        <v>25015</v>
+        <v>26215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -517,7 +520,7 @@
         <v>400</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D27" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D29" si="0">B2*C2</f>
         <v>800</v>
       </c>
       <c r="F2" t="s">
@@ -546,7 +549,7 @@
       </c>
       <c r="G3">
         <f>G1/G2</f>
-        <v>6253.75</v>
+        <v>6553.75</v>
       </c>
       <c r="H3">
         <v>6000</v>
@@ -910,6 +913,36 @@
       <c r="D27">
         <f t="shared" si="0"/>
         <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>400</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>800</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/experience.xlsx
+++ b/experience.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\GitHub\PathFinder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Desktop\local\PathFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9011DD5-0F7C-47B8-9D8F-BF8B7042584F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6C8F7C-1F27-4194-9083-A5D25B81202E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Commando gobelin</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Désactivation de la boite dieu</t>
+  </si>
+  <si>
+    <t>Nuée de crabe</t>
+  </si>
+  <si>
+    <t>Elementaire d'eau M</t>
+  </si>
+  <si>
+    <t>Elementaire d'eau G</t>
   </si>
 </sst>
 </file>
@@ -475,19 +484,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574DC262-0744-4214-8AE8-B278A91423C7}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,10 +515,10 @@
       </c>
       <c r="G1">
         <f>SUM(D:D)</f>
-        <v>26215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29815</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -520,7 +529,7 @@
         <v>400</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D29" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D32" si="0">B2*C2</f>
         <v>800</v>
       </c>
       <c r="F2" t="s">
@@ -530,7 +539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -549,13 +558,13 @@
       </c>
       <c r="G3">
         <f>G1/G2</f>
-        <v>6553.75</v>
+        <v>7453.75</v>
       </c>
       <c r="H3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -570,7 +579,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -585,7 +594,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -600,7 +609,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -615,7 +624,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -630,7 +639,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -645,7 +654,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -660,7 +669,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -675,7 +684,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -690,7 +699,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -705,7 +714,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -720,7 +729,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -735,7 +744,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -750,7 +759,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -765,7 +774,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -780,7 +789,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -795,7 +804,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -810,7 +819,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -825,7 +834,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -840,7 +849,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -855,7 +864,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -870,7 +879,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -885,7 +894,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -900,7 +909,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -915,7 +924,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -930,7 +939,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -943,6 +952,51 @@
       <c r="D29">
         <f t="shared" si="0"/>
         <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1200</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>800</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1600</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1600</v>
       </c>
     </row>
   </sheetData>

--- a/experience.xlsx
+++ b/experience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Desktop\local\PathFinder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\GitHub\PathFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6C8F7C-1F27-4194-9083-A5D25B81202E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EB13F1-7923-458D-AE1F-13B4DE5232E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Commando gobelin</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>Elementaire d'eau G</t>
+  </si>
+  <si>
+    <t>Seigneur de boue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senethar </t>
+  </si>
+  <si>
+    <t>Automate d'émeraude à queue de requin</t>
+  </si>
+  <si>
+    <t>Minotaure de laiton</t>
   </si>
 </sst>
 </file>
@@ -484,19 +496,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574DC262-0744-4214-8AE8-B278A91423C7}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H3"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,10 +527,10 @@
       </c>
       <c r="G1">
         <f>SUM(D:D)</f>
-        <v>29815</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -529,7 +541,7 @@
         <v>400</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D32" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D36" si="0">B2*C2</f>
         <v>800</v>
       </c>
       <c r="F2" t="s">
@@ -539,7 +551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -558,13 +570,13 @@
       </c>
       <c r="G3">
         <f>G1/G2</f>
-        <v>7453.75</v>
+        <v>9053.75</v>
       </c>
       <c r="H3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -579,7 +591,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -594,7 +606,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -609,7 +621,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -624,7 +636,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -639,7 +651,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -654,7 +666,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -669,7 +681,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -684,7 +696,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -699,7 +711,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -714,7 +726,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -729,7 +741,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -744,7 +756,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -759,7 +771,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -774,7 +786,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -789,7 +801,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -804,7 +816,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -819,7 +831,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -834,7 +846,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -849,7 +861,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -864,7 +876,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -879,7 +891,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -894,7 +906,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -909,7 +921,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -924,7 +936,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -939,7 +951,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -954,7 +966,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -969,7 +981,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -984,7 +996,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -995,6 +1007,66 @@
         <v>1600</v>
       </c>
       <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2400</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1200</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1200</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1600</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>

--- a/experience.xlsx
+++ b/experience.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\GitHub\PathFinder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Desktop\local\PathFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EB13F1-7923-458D-AE1F-13B4DE5232E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC9FAE4-F57A-4834-BF92-E0CA788F954D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Commando gobelin</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Minotaure de laiton</t>
+  </si>
+  <si>
+    <t>Klarkosh</t>
+  </si>
+  <si>
+    <t>Lame tournante</t>
   </si>
 </sst>
 </file>
@@ -496,19 +502,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574DC262-0744-4214-8AE8-B278A91423C7}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,10 +533,10 @@
       </c>
       <c r="G1">
         <f>SUM(D:D)</f>
-        <v>36215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -541,7 +547,7 @@
         <v>400</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D36" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D38" si="0">B2*C2</f>
         <v>800</v>
       </c>
       <c r="F2" t="s">
@@ -551,7 +557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -570,13 +576,13 @@
       </c>
       <c r="G3">
         <f>G1/G2</f>
-        <v>9053.75</v>
+        <v>11253.75</v>
       </c>
       <c r="H3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -591,7 +597,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -606,7 +612,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -621,7 +627,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -636,7 +642,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -651,7 +657,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -666,7 +672,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -681,7 +687,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -696,7 +702,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -711,7 +717,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -726,7 +732,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -741,7 +747,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -756,7 +762,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -771,7 +777,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -786,7 +792,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -801,7 +807,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -816,7 +822,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -831,7 +837,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -846,7 +852,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -861,7 +867,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -876,7 +882,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -891,7 +897,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -906,7 +912,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -921,7 +927,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -936,7 +942,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -951,7 +957,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -966,7 +972,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -981,7 +987,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1011,7 +1017,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1041,22 +1047,22 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>1200</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1069,6 +1075,36 @@
       <c r="D36">
         <f t="shared" si="0"/>
         <v>1600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>3200</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>400</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/experience.xlsx
+++ b/experience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Desktop\local\PathFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC9FAE4-F57A-4834-BF92-E0CA788F954D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EBAA70-3713-4DB0-9338-72C52CF2D0E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
+    <workbookView xWindow="30" yWindow="90" windowWidth="28740" windowHeight="15510" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Commando gobelin</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Lame tournante</t>
+  </si>
+  <si>
+    <t>Aghash</t>
+  </si>
+  <si>
+    <t>Leopards fielon</t>
   </si>
 </sst>
 </file>
@@ -502,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574DC262-0744-4214-8AE8-B278A91423C7}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +539,7 @@
       </c>
       <c r="G1">
         <f>SUM(D:D)</f>
-        <v>45015</v>
+        <v>47415</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -547,7 +553,7 @@
         <v>400</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D38" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D40" si="0">B2*C2</f>
         <v>800</v>
       </c>
       <c r="F2" t="s">
@@ -576,10 +582,10 @@
       </c>
       <c r="G3">
         <f>G1/G2</f>
-        <v>11253.75</v>
+        <v>11853.75</v>
       </c>
       <c r="H3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1105,6 +1111,36 @@
       <c r="D38">
         <f t="shared" si="0"/>
         <v>800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1200</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>600</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>

--- a/experience.xlsx
+++ b/experience.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Desktop\local\PathFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EBAA70-3713-4DB0-9338-72C52CF2D0E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26271E3-3A15-431B-9287-A550707B8DCD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="90" windowWidth="28740" windowHeight="15510" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Commando gobelin</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Leopards fielon</t>
+  </si>
+  <si>
+    <t>bougie de repentance</t>
+  </si>
+  <si>
+    <t>troglodytes fielons</t>
   </si>
 </sst>
 </file>
@@ -508,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574DC262-0744-4214-8AE8-B278A91423C7}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +545,7 @@
       </c>
       <c r="G1">
         <f>SUM(D:D)</f>
-        <v>47415</v>
+        <v>52615</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -553,7 +559,7 @@
         <v>400</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D40" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D36" si="0">B2*C2</f>
         <v>800</v>
       </c>
       <c r="F2" t="s">
@@ -582,7 +588,7 @@
       </c>
       <c r="G3">
         <f>G1/G2</f>
-        <v>11853.75</v>
+        <v>13153.75</v>
       </c>
       <c r="H3">
         <v>15000</v>
@@ -1094,7 +1100,7 @@
         <v>3200</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f>B37*C37</f>
         <v>3200</v>
       </c>
     </row>
@@ -1109,7 +1115,7 @@
         <v>400</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f>B38*C38</f>
         <v>800</v>
       </c>
     </row>
@@ -1124,7 +1130,7 @@
         <v>1200</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
+        <f>B39*C39</f>
         <v>1200</v>
       </c>
     </row>
@@ -1139,8 +1145,38 @@
         <v>600</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>1200</v>
+        <f>B40*C40</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1600</v>
+      </c>
+      <c r="D41">
+        <f>B41*C41</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>600</v>
+      </c>
+      <c r="D42">
+        <f>B42*C42</f>
+        <v>3600</v>
       </c>
     </row>
   </sheetData>

--- a/experience.xlsx
+++ b/experience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Desktop\local\PathFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26271E3-3A15-431B-9287-A550707B8DCD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31B7754-6B9C-49B9-92C6-08D98D300950}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
+    <workbookView xWindow="28860" yWindow="90" windowWidth="28740" windowHeight="15510" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Commando gobelin</t>
   </si>
@@ -160,6 +160,24 @@
   </si>
   <si>
     <t>troglodytes fielons</t>
+  </si>
+  <si>
+    <t>Nécrophidius evolué</t>
+  </si>
+  <si>
+    <t>Gamil</t>
+  </si>
+  <si>
+    <t>Homme serpents dégénérés</t>
+  </si>
+  <si>
+    <t>Serpent constricteur</t>
+  </si>
+  <si>
+    <t>Sartoss</t>
+  </si>
+  <si>
+    <t>Sanaz</t>
   </si>
 </sst>
 </file>
@@ -514,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574DC262-0744-4214-8AE8-B278A91423C7}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +563,7 @@
       </c>
       <c r="G1">
         <f>SUM(D:D)</f>
-        <v>52615</v>
+        <v>66615</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -588,7 +606,7 @@
       </c>
       <c r="G3">
         <f>G1/G2</f>
-        <v>13153.75</v>
+        <v>16653.75</v>
       </c>
       <c r="H3">
         <v>15000</v>
@@ -1100,7 +1118,7 @@
         <v>3200</v>
       </c>
       <c r="D37">
-        <f>B37*C37</f>
+        <f t="shared" ref="D37:D48" si="1">B37*C37</f>
         <v>3200</v>
       </c>
     </row>
@@ -1115,7 +1133,7 @@
         <v>400</v>
       </c>
       <c r="D38">
-        <f>B38*C38</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
     </row>
@@ -1130,7 +1148,7 @@
         <v>1200</v>
       </c>
       <c r="D39">
-        <f>B39*C39</f>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
     </row>
@@ -1145,7 +1163,7 @@
         <v>600</v>
       </c>
       <c r="D40">
-        <f>B40*C40</f>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
     </row>
@@ -1160,7 +1178,7 @@
         <v>1600</v>
       </c>
       <c r="D41">
-        <f>B41*C41</f>
+        <f t="shared" si="1"/>
         <v>1600</v>
       </c>
     </row>
@@ -1175,8 +1193,98 @@
         <v>600</v>
       </c>
       <c r="D42">
-        <f>B42*C42</f>
+        <f t="shared" si="1"/>
         <v>3600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1200</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>2400</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>1200</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>800</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2400</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>4800</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>4800</v>
       </c>
     </row>
   </sheetData>

--- a/experience.xlsx
+++ b/experience.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Desktop\local\PathFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31B7754-6B9C-49B9-92C6-08D98D300950}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B59AE6A-AB2F-4746-A628-8C378896B422}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="90" windowWidth="28740" windowHeight="15510" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
+    <workbookView xWindow="60" yWindow="8325" windowWidth="28740" windowHeight="7275" xr2:uid="{1E6C0462-5554-4839-AC12-7BA4738F47D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Commando gobelin</t>
   </si>
@@ -178,6 +178,24 @@
   </si>
   <si>
     <t>Sanaz</t>
+  </si>
+  <si>
+    <t>nue de serpent venimeux evoluee</t>
+  </si>
+  <si>
+    <t>ogrelins</t>
+  </si>
+  <si>
+    <t>Viflin</t>
+  </si>
+  <si>
+    <t>Idole de serpent</t>
+  </si>
+  <si>
+    <t>serpents spectraux</t>
+  </si>
+  <si>
+    <t>Rats sanguinaire</t>
   </si>
 </sst>
 </file>
@@ -532,15 +550,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574DC262-0744-4214-8AE8-B278A91423C7}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -563,7 +581,7 @@
       </c>
       <c r="G1">
         <f>SUM(D:D)</f>
-        <v>66615</v>
+        <v>81825</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -584,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -606,10 +624,10 @@
       </c>
       <c r="G3">
         <f>G1/G2</f>
-        <v>16653.75</v>
+        <v>18183.333333333332</v>
       </c>
       <c r="H3">
-        <v>15000</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1118,7 +1136,7 @@
         <v>3200</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:D48" si="1">B37*C37</f>
+        <f t="shared" ref="D37:D54" si="1">B37*C37</f>
         <v>3200</v>
       </c>
     </row>
@@ -1232,14 +1250,14 @@
         <v>45</v>
       </c>
       <c r="B45" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C45">
         <v>1200</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1285,6 +1303,96 @@
       <c r="D48">
         <f t="shared" si="1"/>
         <v>4800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1600</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>600</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>800</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>2400</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>2400</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>135</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
